--- a/output/comp_ratios_fish_vs_scats_means.xlsx
+++ b/output/comp_ratios_fish_vs_scats_means.xlsx
@@ -407,10 +407,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>0.847701149425287</v>
+        <v>0.862573099415205</v>
       </c>
       <c r="C2" t="n">
-        <v>1.17966101694915</v>
+        <v>1.15932203389831</v>
       </c>
     </row>
     <row r="3">
@@ -418,10 +418,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>0.295410282779738</v>
+        <v>0.382819348091932</v>
       </c>
       <c r="C3" t="n">
-        <v>3.38512251703038</v>
+        <v>2.6121981686251</v>
       </c>
     </row>
     <row r="4">
@@ -429,10 +429,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>0.049079754601227</v>
+        <v>0.0747663551401869</v>
       </c>
       <c r="C4" t="n">
-        <v>20.375</v>
+        <v>13.375</v>
       </c>
     </row>
     <row r="5">
@@ -451,10 +451,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0201222345330426</v>
+        <v>0.0210706972417222</v>
       </c>
       <c r="C6" t="n">
-        <v>49.696269982238</v>
+        <v>47.459274295864</v>
       </c>
     </row>
     <row r="7">
@@ -462,10 +462,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="n">
-        <v>4.36677140497564</v>
+        <v>4.28362630567233</v>
       </c>
       <c r="C7" t="n">
-        <v>0.229002140771685</v>
+        <v>0.233447067657562</v>
       </c>
     </row>
     <row r="8">
@@ -473,10 +473,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="n">
-        <v>0.201962280346201</v>
+        <v>0.207346490984064</v>
       </c>
       <c r="C8" t="n">
-        <v>4.9514196328434</v>
+        <v>4.82284506120171</v>
       </c>
     </row>
     <row r="9">
@@ -484,10 +484,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="n">
-        <v>0.053382420616659</v>
+        <v>0.0615874701353862</v>
       </c>
       <c r="C9" t="n">
-        <v>18.7327586206897</v>
+        <v>16.2370689655172</v>
       </c>
     </row>
     <row r="10">
@@ -495,10 +495,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="n">
-        <v>1.63689514885759</v>
+        <v>1.58796490167197</v>
       </c>
       <c r="C10" t="n">
-        <v>0.610912678614701</v>
+        <v>0.629736840497606</v>
       </c>
     </row>
     <row r="11">
@@ -506,10 +506,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="n">
-        <v>0.126891734575087</v>
+        <v>0.235421166306695</v>
       </c>
       <c r="C11" t="n">
-        <v>7.88073394495413</v>
+        <v>4.24770642201835</v>
       </c>
     </row>
     <row r="12">
@@ -517,10 +517,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="n">
-        <v>0.438108690863212</v>
+        <v>0.582348335400226</v>
       </c>
       <c r="C12" t="n">
-        <v>2.28253860481445</v>
+        <v>1.71718529823347</v>
       </c>
     </row>
     <row r="13">
@@ -528,10 +528,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="n">
-        <v>0.118147046323842</v>
+        <v>0.114121510673235</v>
       </c>
       <c r="C13" t="n">
-        <v>8.46402877697842</v>
+        <v>8.76258992805755</v>
       </c>
     </row>
     <row r="14">
@@ -539,10 +539,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="n">
-        <v>0.132187973724103</v>
+        <v>0.13419513696522</v>
       </c>
       <c r="C14" t="n">
-        <v>7.56498470948012</v>
+        <v>7.45183486238532</v>
       </c>
     </row>
   </sheetData>
